--- a/ver1/tree.xlsx
+++ b/ver1/tree.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mini\Documents\25\project\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\i7\drevo\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>label</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Ж</t>
   </si>
   <si>
-    <t>newSurname</t>
-  </si>
-  <si>
     <t>husband</t>
   </si>
   <si>
@@ -124,6 +121,33 @@
   </si>
   <si>
     <t>1871</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>https://ru.ruwiki.ru/wiki/%D0%A3%D0%BB%D1%8C%D1%8F%D0%BD%D0%BE%D0%B2%D0%B0,_%D0%9C%D0%B0%D1%80%D0%B8%D1%8F_%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B0%D0%BD%D0%B4%D1%80%D0%BE%D0%B2%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t>Ленин</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>patronymic</t>
+  </si>
+  <si>
+    <t>surName2</t>
+  </si>
+  <si>
+    <t>hyperLink</t>
+  </si>
+  <si>
+    <t>surName</t>
+  </si>
+  <si>
+    <t>25 августа (6 сентября) 1863 </t>
   </si>
 </sst>
 </file>
@@ -468,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,11 +509,15 @@
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -498,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -512,578 +540,155 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f>SUBSTITUTE(B2, " ", "_")</f>
         <v>Ульянов_Владимир_Ильич</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f>SUBSTITUTE(B3, " ", "_")</f>
         <v>Ульянов_Илья_Николаевич</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
-        <f t="shared" ref="A4:A19" si="0">SUBSTITUTE(B4, " ", "_")</f>
+        <f t="shared" ref="A4:A9" si="0">SUBSTITUTE(B4, " ", "_")</f>
         <v>Бланк_Мария_Александровна</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Ульянин_Николай_Васильевич</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Смирнова_Анна_Алексеевна</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F400">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F9">
       <formula1>$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" tooltip="Ульянова, Мария Александровна" display="https://ru.ruwiki.ru/wiki/%D0%A3%D0%BB%D1%8C%D1%8F%D0%BD%D0%BE%D0%B2%D0%B0,_%D0%9C%D0%B0%D1%80%D0%B8%D1%8F_%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B0%D0%BD%D0%B4%D1%80%D0%BE%D0%B2%D0%BD%D0%B0"/>
+    <hyperlink ref="B4" r:id="rId1" tooltip="Ульянова, Мария Александровна"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1092,33 +697,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>B2&amp;"-"&amp;C2</f>
+        <v>Ульянов_Илья_Николаевич-Бланк_Мария_Александровна</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ver1/tree.xlsx
+++ b/ver1/tree.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>label</t>
   </si>
@@ -126,9 +126,6 @@
     <t>marriage</t>
   </si>
   <si>
-    <t>https://ru.ruwiki.ru/wiki/%D0%A3%D0%BB%D1%8C%D1%8F%D0%BD%D0%BE%D0%B2%D0%B0,_%D0%9C%D0%B0%D1%80%D0%B8%D1%8F_%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B0%D0%BD%D0%B4%D1%80%D0%BE%D0%B2%D0%BD%D0%B0</t>
-  </si>
-  <si>
     <t>Ленин</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>25 августа (6 сентября) 1863 </t>
+  </si>
+  <si>
+    <t>https://ru.ruwiki.ru/wiki/%D0%A3%D0%BB%D1%8C%D1%8F%D0%BD%D0%BE%D0%B2%D0%B0,_%D0%9C%D0%B0%D1%80%D0%B8%D1%8F_%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B0%D0%BD%D0%B4%D1%80%D0%BE%D0%B2%D0%BD%D0%B0 ; https://ru.wikipedia.org/wiki/%D0%A3%D0%BB%D1%8C%D1%8F%D0%BD%D0%BE%D0%B2%D0%B0,_%D0%9C%D0%B0%D1%80%D0%B8%D1%8F_%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B0%D0%BD%D0%B4%D1%80%D0%BE%D0%B2%D0%BD%D0%B0</t>
+  </si>
+  <si>
+    <t>Ульянова</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -541,16 +544,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -565,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -615,6 +618,9 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="G4" s="2" t="s">
         <v>25</v>
@@ -623,7 +629,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -738,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
